--- a/year_results.xlsx
+++ b/year_results.xlsx
@@ -486,28 +486,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7752</v>
+        <v>7788</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1873926488669763</v>
+        <v>0.2313470458644981</v>
       </c>
       <c r="D2" t="n">
-        <v>2.571482043548309</v>
+        <v>3.27062010818219</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3557738152268343</v>
+        <v>0.4560730454510289</v>
       </c>
       <c r="F2" t="n">
-        <v>13.51684842817275</v>
+        <v>17.22362770561776</v>
       </c>
       <c r="G2" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H2" t="n">
-        <v>19.15545650822456</v>
+        <v>23.70562747752517</v>
       </c>
       <c r="I2" t="n">
-        <v>-136.2418386531642</v>
+        <v>-111.350450169856</v>
       </c>
     </row>
     <row r="3">
@@ -518,25 +518,25 @@
         <v>12</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1873926488669763</v>
+        <v>0.3744039976957061</v>
       </c>
       <c r="D3" t="n">
-        <v>2.571482043548309</v>
+        <v>3.823830243617627</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3557738118386237</v>
+        <v>0.521828214362029</v>
       </c>
       <c r="F3" t="n">
-        <v>13.51684745886288</v>
+        <v>17.32397725813123</v>
       </c>
       <c r="G3" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H3" t="n">
-        <v>19.15545553552648</v>
+        <v>24.56799928621628</v>
       </c>
       <c r="I3" t="n">
-        <v>-136.2418423186069</v>
+        <v>-107.443529083619</v>
       </c>
     </row>
     <row r="4">
@@ -547,25 +547,25 @@
         <v>12</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1873926488669763</v>
+        <v>0.3744079756411275</v>
       </c>
       <c r="D4" t="n">
-        <v>2.571482043548309</v>
+        <v>4.227675163286228</v>
       </c>
       <c r="E4" t="n">
-        <v>0.355773808514456</v>
+        <v>0.5764467437290971</v>
       </c>
       <c r="F4" t="n">
-        <v>13.51684650787458</v>
+        <v>17.46037092997026</v>
       </c>
       <c r="G4" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H4" t="n">
-        <v>19.15545458121402</v>
+        <v>25.16286038503641</v>
       </c>
       <c r="I4" t="n">
-        <v>-136.2418459089639</v>
+        <v>-104.9077108917204</v>
       </c>
     </row>
     <row r="5">
@@ -576,25 +576,25 @@
         <v>12</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1873926488669763</v>
+        <v>0.3744079757517412</v>
       </c>
       <c r="D5" t="n">
-        <v>2.571482043548309</v>
+        <v>4.522483064833018</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3557738052531206</v>
+        <v>0.6140149761119812</v>
       </c>
       <c r="F5" t="n">
-        <v>13.51684557486155</v>
+        <v>17.61006425936289</v>
       </c>
       <c r="G5" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H5" t="n">
-        <v>19.15545364493965</v>
+        <v>25.64492984846932</v>
       </c>
       <c r="I5" t="n">
-        <v>-136.2418494257651</v>
+        <v>-102.9413513868482</v>
       </c>
     </row>
     <row r="6">
@@ -605,25 +605,25 @@
         <v>12</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1873926488669763</v>
+        <v>0.3744079757517442</v>
       </c>
       <c r="D6" t="n">
-        <v>2.571482043548309</v>
+        <v>4.737693643402984</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3557738020534298</v>
+        <v>0.6402817921282513</v>
       </c>
       <c r="F6" t="n">
-        <v>13.51684465948404</v>
+        <v>17.76841234619863</v>
       </c>
       <c r="G6" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H6" t="n">
-        <v>19.15545272636245</v>
+        <v>26.0447553298913</v>
       </c>
       <c r="I6" t="n">
-        <v>-136.2418528705097</v>
+        <v>-101.3676021330653</v>
       </c>
     </row>
     <row r="7">
@@ -634,25 +634,25 @@
         <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1873926488669763</v>
+        <v>0.3744079757517442</v>
       </c>
       <c r="D7" t="n">
-        <v>2.571482043548309</v>
+        <v>4.894797957383079</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3557737989142185</v>
+        <v>0.6589116169477752</v>
       </c>
       <c r="F7" t="n">
-        <v>13.51684376140869</v>
+        <v>17.9321104753416</v>
       </c>
       <c r="G7" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H7" t="n">
-        <v>19.15545182514789</v>
+        <v>26.38418759783389</v>
       </c>
       <c r="I7" t="n">
-        <v>-136.241856244665</v>
+        <v>-100.0706042680997</v>
       </c>
     </row>
     <row r="8">
@@ -663,25 +663,25 @@
         <v>12</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1873926488669763</v>
+        <v>0.3744079757517442</v>
       </c>
       <c r="D8" t="n">
-        <v>2.571482043548309</v>
+        <v>5.009484538475709</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3557737958343439</v>
+        <v>0.6722938623093282</v>
       </c>
       <c r="F8" t="n">
-        <v>13.51684288030847</v>
+        <v>18.09879949906162</v>
       </c>
       <c r="G8" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H8" t="n">
-        <v>19.15545094096779</v>
+        <v>26.6789454480081</v>
       </c>
       <c r="I8" t="n">
-        <v>-136.241859549669</v>
+        <v>-98.9724612822297</v>
       </c>
     </row>
     <row r="9">
@@ -692,25 +692,25 @@
         <v>12</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1873926488669763</v>
+        <v>0.3744079757517442</v>
       </c>
       <c r="D9" t="n">
-        <v>2.571482043548309</v>
+        <v>5.09320605795214</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3557737928126836</v>
+        <v>0.6820196310908052</v>
       </c>
       <c r="F9" t="n">
-        <v>13.51684201586251</v>
+        <v>18.2667930026705</v>
       </c>
       <c r="G9" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H9" t="n">
-        <v>19.15545007350018</v>
+        <v>26.94038623987489</v>
       </c>
       <c r="I9" t="n">
-        <v>-136.2418627869316</v>
+        <v>-98.01976181689976</v>
       </c>
     </row>
     <row r="10">
@@ -721,25 +721,25 @@
         <v>12</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1873926488669763</v>
+        <v>0.3744079757517442</v>
       </c>
       <c r="D10" t="n">
-        <v>2.571482043548309</v>
+        <v>5.154322997324337</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3557737898481381</v>
+        <v>0.689168301108331</v>
       </c>
       <c r="F10" t="n">
-        <v>13.51684116775603</v>
+        <v>18.4348861337234</v>
       </c>
       <c r="G10" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H10" t="n">
-        <v>19.15544922242915</v>
+        <v>27.1767449803175</v>
       </c>
       <c r="I10" t="n">
-        <v>-136.2418659578341</v>
+        <v>-97.17532202147538</v>
       </c>
     </row>
     <row r="11">
@@ -750,25 +750,25 @@
         <v>12</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1873926488669763</v>
+        <v>0.3744079757517442</v>
       </c>
       <c r="D11" t="n">
-        <v>2.571482043548309</v>
+        <v>5.198938531079387</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3557737869396272</v>
+        <v>0.6944837933226662</v>
       </c>
       <c r="F11" t="n">
-        <v>13.51684033568018</v>
+        <v>18.60222033952202</v>
       </c>
       <c r="G11" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H11" t="n">
-        <v>19.15544838744479</v>
+        <v>27.39401021208551</v>
       </c>
       <c r="I11" t="n">
-        <v>-136.2418690637282</v>
+        <v>-96.41293887575142</v>
       </c>
     </row>
     <row r="12">
@@ -779,25 +779,25 @@
         <v>12</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1873926488669763</v>
+        <v>0.3744079757517442</v>
       </c>
       <c r="D12" t="n">
-        <v>2.571482043548309</v>
+        <v>5.231507993370777</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3557737840860922</v>
+        <v>0.6984855811457633</v>
       </c>
       <c r="F12" t="n">
-        <v>13.51683951933195</v>
+        <v>18.7681869298758</v>
       </c>
       <c r="G12" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H12" t="n">
-        <v>19.15544756824303</v>
+        <v>27.59654805255378</v>
       </c>
       <c r="I12" t="n">
-        <v>-136.2418721059396</v>
+        <v>-95.71395896067214</v>
       </c>
     </row>
     <row r="13">
@@ -808,25 +808,25 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1873926488669763</v>
+        <v>0.3744079757517442</v>
       </c>
       <c r="D13" t="n">
-        <v>2.571482043548309</v>
+        <v>5.255283790378479</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3557737812864937</v>
+        <v>0.7015402517211837</v>
       </c>
       <c r="F13" t="n">
-        <v>13.51683871841408</v>
+        <v>18.9323579161086</v>
       </c>
       <c r="G13" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H13" t="n">
-        <v>19.15544676452556</v>
+        <v>27.7875495063697</v>
       </c>
       <c r="I13" t="n">
-        <v>-136.2418750857671</v>
+        <v>-95.06498302355881</v>
       </c>
     </row>
     <row r="14">
@@ -837,25 +837,25 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1873926488669763</v>
+        <v>0.3744079757517442</v>
       </c>
       <c r="D14" t="n">
-        <v>2.571482043548309</v>
+        <v>5.272640187554887</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3557737785398127</v>
+        <v>0.7039086634287666</v>
       </c>
       <c r="F14" t="n">
-        <v>13.51683793263489</v>
+        <v>19.09443618983983</v>
       </c>
       <c r="G14" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H14" t="n">
-        <v>19.15544597599968</v>
+        <v>27.96935258898492</v>
       </c>
       <c r="I14" t="n">
-        <v>-136.2418780044826</v>
+        <v>-94.45630306465247</v>
       </c>
     </row>
     <row r="15">
@@ -866,25 +866,25 @@
         <v>12</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1873926488669763</v>
+        <v>0.3744079757517442</v>
       </c>
       <c r="D15" t="n">
-        <v>2.571482043548309</v>
+        <v>5.285310405207216</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3557737758450483</v>
+        <v>0.70577764499824</v>
       </c>
       <c r="F15" t="n">
-        <v>13.51683716170824</v>
+        <v>19.25421951303789</v>
       </c>
       <c r="G15" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H15" t="n">
-        <v>19.15544520237827</v>
+        <v>28.14367511140478</v>
       </c>
       <c r="I15" t="n">
-        <v>-136.241880863332</v>
+        <v>-93.88082362960037</v>
       </c>
     </row>
     <row r="16">
@@ -895,25 +895,25 @@
         <v>12</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1873926488669763</v>
+        <v>0.3744079757517442</v>
       </c>
       <c r="D16" t="n">
-        <v>2.571482043548309</v>
+        <v>5.294559698924444</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3557737732012193</v>
+        <v>0.7072816738469052</v>
       </c>
       <c r="F16" t="n">
-        <v>13.5168364053534</v>
+        <v>19.41157442573699</v>
       </c>
       <c r="G16" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H16" t="n">
-        <v>19.1554444433796</v>
+        <v>28.31178334666977</v>
       </c>
       <c r="I16" t="n">
-        <v>-136.2418836635362</v>
+        <v>-93.33330950089002</v>
       </c>
     </row>
     <row r="17">
@@ -924,25 +924,25 @@
         <v>12</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1873926488669763</v>
+        <v>0.3744079757517442</v>
       </c>
       <c r="D17" t="n">
-        <v>2.571482043548309</v>
+        <v>5.301311708764763</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3557737706073633</v>
+        <v>0.7085179171223048</v>
       </c>
       <c r="F17" t="n">
-        <v>13.51683566329493</v>
+        <v>19.56641730534996</v>
       </c>
       <c r="G17" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H17" t="n">
-        <v>19.15544369872727</v>
+        <v>28.47461447939846</v>
       </c>
       <c r="I17" t="n">
-        <v>-136.2418864062907</v>
+        <v>-92.80985681894749</v>
       </c>
     </row>
     <row r="18">
@@ -953,25 +953,25 @@
         <v>12</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1873926488669763</v>
+        <v>0.3744079757517442</v>
       </c>
       <c r="D18" t="n">
-        <v>2.571482043548309</v>
+        <v>5.306240694509789</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3557737680625354</v>
+        <v>0.7095567910979085</v>
       </c>
       <c r="F18" t="n">
-        <v>13.5168349352626</v>
+        <v>19.71870059925302</v>
       </c>
       <c r="G18" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H18" t="n">
-        <v>19.15544296815011</v>
+        <v>28.63286563302216</v>
       </c>
       <c r="I18" t="n">
-        <v>-136.2418890927685</v>
+        <v>-92.3075189800866</v>
       </c>
     </row>
     <row r="19">
@@ -982,25 +982,25 @@
         <v>12</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1873926488669763</v>
+        <v>0.3744079757517442</v>
       </c>
       <c r="D19" t="n">
-        <v>2.571482043548309</v>
+        <v>5.309838867653673</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3557737655658092</v>
+        <v>0.7104494439721591</v>
       </c>
       <c r="F19" t="n">
-        <v>13.5168342209913</v>
+        <v>19.86840280840551</v>
       </c>
       <c r="G19" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H19" t="n">
-        <v>19.15544225138209</v>
+        <v>28.78705866819278</v>
       </c>
       <c r="I19" t="n">
-        <v>-136.2418917241177</v>
+        <v>-91.82404073997708</v>
       </c>
     </row>
     <row r="20">
@@ -1011,25 +1011,25 @@
         <v>12</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1873926488669763</v>
+        <v>0.3744079757517442</v>
       </c>
       <c r="D20" t="n">
-        <v>2.571482043548309</v>
+        <v>5.312465543940256</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3557737631162752</v>
+        <v>0.7112330973429012</v>
       </c>
       <c r="F20" t="n">
-        <v>13.51683352022093</v>
+        <v>20.01552119553829</v>
       </c>
       <c r="G20" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H20" t="n">
-        <v>19.15544154816218</v>
+        <v>28.93758738498289</v>
       </c>
       <c r="I20" t="n">
-        <v>-136.2418943014618</v>
+        <v>-91.35766849692151</v>
       </c>
     </row>
     <row r="21">
@@ -1040,25 +1040,25 @@
         <v>12</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1873926488669763</v>
+        <v>0.3744079757517442</v>
       </c>
       <c r="D21" t="n">
-        <v>2.571482043548309</v>
+        <v>5.314383024850319</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3557737607130413</v>
+        <v>0.7119348806115743</v>
       </c>
       <c r="F21" t="n">
-        <v>13.51683283269628</v>
+        <v>20.16006647490172</v>
       </c>
       <c r="G21" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H21" t="n">
-        <v>19.1554408582343</v>
+        <v>29.08475192852505</v>
       </c>
       <c r="I21" t="n">
-        <v>-136.2418968259037</v>
+        <v>-90.90701449714177</v>
       </c>
     </row>
     <row r="22">
@@ -1069,25 +1069,25 @@
         <v>12</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1873926488669763</v>
+        <v>0.3744079757517442</v>
       </c>
       <c r="D22" t="n">
-        <v>2.571482043548309</v>
+        <v>5.315782791185909</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3557737583552325</v>
+        <v>0.7125745953129956</v>
       </c>
       <c r="F22" t="n">
-        <v>13.51683215816701</v>
+        <v>20.30205894456206</v>
       </c>
       <c r="G22" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H22" t="n">
-        <v>19.15544018134722</v>
+        <v>29.2287838792224</v>
       </c>
       <c r="I22" t="n">
-        <v>-136.2418992985229</v>
+        <v>-90.47095936598937</v>
       </c>
     </row>
     <row r="23">
@@ -1098,25 +1098,25 @@
         <v>12</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1873926488669763</v>
+        <v>0.3744079757517442</v>
       </c>
       <c r="D23" t="n">
-        <v>2.571482043548309</v>
+        <v>5.316804624458912</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3557737560419903</v>
+        <v>0.7131667144273048</v>
       </c>
       <c r="F23" t="n">
-        <v>13.51683149638746</v>
+        <v>20.44152566958379</v>
       </c>
       <c r="G23" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H23" t="n">
-        <v>19.15543951725444</v>
+        <v>29.36986455663145</v>
       </c>
       <c r="I23" t="n">
-        <v>-136.2419017203777</v>
+        <v>-90.04858196822929</v>
       </c>
     </row>
     <row r="24">
@@ -1127,25 +1127,25 @@
         <v>12</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1873926488669763</v>
+        <v>0.3744079757517442</v>
       </c>
       <c r="D24" t="n">
-        <v>2.571482043548309</v>
+        <v>5.317550565557274</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3557737537724724</v>
+        <v>0.7137218318831811</v>
       </c>
       <c r="F24" t="n">
-        <v>13.51683084711666</v>
+        <v>20.57849843115881</v>
       </c>
       <c r="G24" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H24" t="n">
-        <v>19.15543886571411</v>
+        <v>29.50813837676071</v>
       </c>
       <c r="I24" t="n">
-        <v>-136.2419040925029</v>
+        <v>-89.63910880614156</v>
       </c>
     </row>
     <row r="25">
@@ -1156,25 +1156,25 @@
         <v>12</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1873926488669763</v>
+        <v>0.3744079757517442</v>
       </c>
       <c r="D25" t="n">
-        <v>2.571482043548309</v>
+        <v>5.318095104609704</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3557737515458522</v>
+        <v>0.7142477153420002</v>
       </c>
       <c r="F25" t="n">
-        <v>13.51683021011816</v>
+        <v>20.71301223420005</v>
       </c>
       <c r="G25" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H25" t="n">
-        <v>19.15543822648899</v>
+        <v>29.64372260231319</v>
       </c>
       <c r="I25" t="n">
-        <v>-136.2419064159145</v>
+        <v>-89.24187741502065</v>
       </c>
     </row>
     <row r="26">
@@ -1185,25 +1185,25 @@
         <v>12</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1873926488669763</v>
+        <v>0.3744079757517442</v>
       </c>
       <c r="D26" t="n">
-        <v>2.571482043548309</v>
+        <v>5.318492619614942</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3557737493613191</v>
+        <v>0.7147500718660718</v>
       </c>
       <c r="F26" t="n">
-        <v>13.51682958516</v>
+        <v>20.84510422221799</v>
       </c>
       <c r="G26" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H26" t="n">
-        <v>19.1554375993463</v>
+        <v>29.77671446186045</v>
       </c>
       <c r="I26" t="n">
-        <v>-136.2419086916071</v>
+        <v>-88.85630980490301</v>
       </c>
     </row>
     <row r="27">
@@ -1214,25 +1214,25 @@
         <v>12</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1873926488669763</v>
+        <v>0.3744079757517442</v>
       </c>
       <c r="D27" t="n">
-        <v>2.571482043548309</v>
+        <v>5.318782806661554</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3557737472180766</v>
+        <v>0.7152331053269491</v>
       </c>
       <c r="F27" t="n">
-        <v>13.5168289720146</v>
+        <v>20.97481288926924</v>
       </c>
       <c r="G27" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H27" t="n">
-        <v>19.15543698405765</v>
+        <v>29.90719634941919</v>
       </c>
       <c r="I27" t="n">
-        <v>-136.2419109205544</v>
+        <v>-88.48189312449229</v>
       </c>
     </row>
     <row r="28">
@@ -1243,25 +1243,25 @@
         <v>12</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1873926488669763</v>
+        <v>0.3744079757517442</v>
       </c>
       <c r="D28" t="n">
-        <v>2.571482043548309</v>
+        <v>5.318994644003319</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3557737451153458</v>
+        <v>0.7156999224995774</v>
       </c>
       <c r="F28" t="n">
-        <v>13.51682837045866</v>
+        <v>21.10217750860457</v>
       </c>
       <c r="G28" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H28" t="n">
-        <v>19.15543638039899</v>
+        <v>30.0352396232689</v>
       </c>
       <c r="I28" t="n">
-        <v>-136.2419131037119</v>
+        <v>-88.11816552517394</v>
       </c>
     </row>
     <row r="29">
@@ -1272,25 +1272,25 @@
         <v>12</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1873926488669763</v>
+        <v>0.3744079757517442</v>
       </c>
       <c r="D29" t="n">
-        <v>2.571482043548309</v>
+        <v>5.319149285845157</v>
       </c>
       <c r="E29" t="n">
-        <v>0.3557737430523596</v>
+        <v>0.7161528290807306</v>
       </c>
       <c r="F29" t="n">
-        <v>13.51682778027314</v>
+        <v>21.22723771938874</v>
       </c>
       <c r="G29" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H29" t="n">
-        <v>19.15543578815048</v>
+        <v>30.16090738247606</v>
       </c>
       <c r="I29" t="n">
-        <v>-136.2419152420138</v>
+        <v>-87.76470577512319</v>
       </c>
     </row>
     <row r="30">
@@ -1301,25 +1301,25 @@
         <v>12</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1873926488669763</v>
+        <v>0.3744079757517442</v>
       </c>
       <c r="D30" t="n">
-        <v>2.571482043548309</v>
+        <v>5.319262174814818</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3557737410283675</v>
+        <v>0.7165935455577215</v>
       </c>
       <c r="F30" t="n">
-        <v>13.51682720124312</v>
+        <v>21.35003322871833</v>
       </c>
       <c r="G30" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H30" t="n">
-        <v>19.15543520709646</v>
+        <v>30.2842564972523</v>
       </c>
       <c r="I30" t="n">
-        <v>-136.2419173363765</v>
+        <v>-87.42112558240123</v>
       </c>
     </row>
     <row r="31">
@@ -1330,25 +1330,25 @@
         <v>12</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1873926488669763</v>
+        <v>0.3744079757517442</v>
       </c>
       <c r="D31" t="n">
-        <v>2.571482043548309</v>
+        <v>5.319344584073007</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3557737390426319</v>
+        <v>0.7170233646779095</v>
       </c>
       <c r="F31" t="n">
-        <v>13.51682663315773</v>
+        <v>21.47060359772606</v>
       </c>
       <c r="G31" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H31" t="n">
-        <v>19.15543463702534</v>
+        <v>30.40533909463841</v>
       </c>
       <c r="I31" t="n">
-        <v>-136.2419193876974</v>
+        <v>-87.08706387872833</v>
       </c>
     </row>
     <row r="32">
@@ -1359,25 +1359,25 @@
         <v>12</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1873926488669763</v>
+        <v>0.3744079757517442</v>
       </c>
       <c r="D32" t="n">
-        <v>2.571482043548309</v>
+        <v>5.319404743058031</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3557737370944298</v>
+        <v>0.7174432663456896</v>
       </c>
       <c r="F32" t="n">
-        <v>13.51682607581011</v>
+        <v>21.58898808899536</v>
       </c>
       <c r="G32" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H32" t="n">
-        <v>19.15543407772952</v>
+        <v>30.52420364656052</v>
       </c>
       <c r="I32" t="n">
-        <v>-136.2419213968565</v>
+        <v>-86.76218252547385</v>
       </c>
     </row>
     <row r="33">
@@ -1388,25 +1388,25 @@
         <v>12</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1873926488669763</v>
+        <v>0.3744079757517442</v>
       </c>
       <c r="D33" t="n">
-        <v>2.571482043548309</v>
+        <v>5.319448659282479</v>
       </c>
       <c r="E33" t="n">
-        <v>0.3557737351830527</v>
+        <v>0.7178540014730022</v>
       </c>
       <c r="F33" t="n">
-        <v>13.51682552899729</v>
+        <v>21.70522555866269</v>
       </c>
       <c r="G33" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H33" t="n">
-        <v>19.15543352900532</v>
+        <v>30.64089576757961</v>
       </c>
       <c r="I33" t="n">
-        <v>-136.2419233647144</v>
+        <v>-86.4461630540131</v>
       </c>
     </row>
     <row r="34">
@@ -1417,25 +1417,25 @@
         <v>12</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1873926488669763</v>
+        <v>0.3744079757517442</v>
       </c>
       <c r="D34" t="n">
-        <v>2.571482043548309</v>
+        <v>5.319480718247053</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3557737333078033</v>
+        <v>0.7182561531826671</v>
       </c>
       <c r="F34" t="n">
-        <v>13.51682499252014</v>
+        <v>21.81935438107676</v>
       </c>
       <c r="G34" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H34" t="n">
-        <v>19.15543299065293</v>
+        <v>30.75545880066792</v>
       </c>
       <c r="I34" t="n">
-        <v>-136.2419252921148</v>
+        <v>-86.13870416079139</v>
       </c>
     </row>
     <row r="35">
@@ -1446,25 +1446,25 @@
         <v>12</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1873926488669763</v>
+        <v>0.3744079757517442</v>
       </c>
       <c r="D35" t="n">
-        <v>2.571482043548309</v>
+        <v>5.319504121379325</v>
       </c>
       <c r="E35" t="n">
-        <v>0.355773731468</v>
+        <v>0.7186501814881415</v>
       </c>
       <c r="F35" t="n">
-        <v>13.51682446618331</v>
+        <v>21.93141239716103</v>
       </c>
       <c r="G35" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H35" t="n">
-        <v>19.15543246247629</v>
+        <v>30.86793424818993</v>
       </c>
       <c r="I35" t="n">
-        <v>-136.2419271798853</v>
+        <v>-85.83951975520088</v>
       </c>
     </row>
     <row r="36">
@@ -1475,25 +1475,25 @@
         <v>12</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1873926488669763</v>
+        <v>0.3744079757517442</v>
       </c>
       <c r="D36" t="n">
-        <v>2.571482043548309</v>
+        <v>5.319521205730219</v>
       </c>
       <c r="E36" t="n">
-        <v>0.3557737296629715</v>
+        <v>0.7190364559157197</v>
       </c>
       <c r="F36" t="n">
-        <v>13.51682394979512</v>
+        <v>22.04143688001795</v>
       </c>
       <c r="G36" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H36" t="n">
-        <v>19.15543194428308</v>
+        <v>30.97836208982533</v>
       </c>
       <c r="I36" t="n">
-        <v>-136.2419290288348</v>
+        <v>-85.54833741431523</v>
       </c>
     </row>
     <row r="37">
@@ -1504,25 +1504,25 @@
         <v>12</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1873926488669763</v>
+        <v>0.3744079757517442</v>
       </c>
       <c r="D37" t="n">
-        <v>2.571482043548309</v>
+        <v>5.319533677353337</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3557737278920611</v>
+        <v>0.7194152793271069</v>
       </c>
       <c r="F37" t="n">
-        <v>13.51682344316754</v>
+        <v>22.14946451305953</v>
       </c>
       <c r="G37" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H37" t="n">
-        <v>19.15543143588458</v>
+        <v>31.08678101790142</v>
       </c>
       <c r="I37" t="n">
-        <v>-136.2419308397575</v>
+        <v>-85.26489713883556</v>
       </c>
     </row>
     <row r="38">
@@ -1533,25 +1533,25 @@
         <v>12</v>
       </c>
       <c r="C38" t="n">
-        <v>0.1873926488669763</v>
+        <v>0.3744079757517442</v>
       </c>
       <c r="D38" t="n">
-        <v>2.571482043548309</v>
+        <v>5.319542781672498</v>
       </c>
       <c r="E38" t="n">
-        <v>0.3557737261546242</v>
+        <v>0.7197869053194458</v>
       </c>
       <c r="F38" t="n">
-        <v>13.51682294611607</v>
+        <v>22.25553137722327</v>
       </c>
       <c r="G38" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H38" t="n">
-        <v>19.15543093709568</v>
+        <v>31.19322861237665</v>
       </c>
       <c r="I38" t="n">
-        <v>-136.2419326134311</v>
+        <v>-84.98895033360077</v>
       </c>
     </row>
     <row r="39">
@@ -1562,25 +1562,25 @@
         <v>12</v>
       </c>
       <c r="C39" t="n">
-        <v>0.1873926488669763</v>
+        <v>0.3744079757517442</v>
       </c>
       <c r="D39" t="n">
-        <v>2.571482043548309</v>
+        <v>5.319549427850514</v>
       </c>
       <c r="E39" t="n">
-        <v>0.355773724450027</v>
+        <v>0.7201515509374171</v>
       </c>
       <c r="F39" t="n">
-        <v>13.51682245845971</v>
+        <v>22.35967294476222</v>
       </c>
       <c r="G39" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H39" t="n">
-        <v>19.15543044773472</v>
+        <v>31.29774147171159</v>
       </c>
       <c r="I39" t="n">
-        <v>-136.2419343506164</v>
+        <v>-84.72025895695535</v>
       </c>
     </row>
     <row r="40">
@@ -1591,25 +1591,25 @@
         <v>12</v>
       </c>
       <c r="C40" t="n">
-        <v>0.1873926488669763</v>
+        <v>0.3744079757517442</v>
       </c>
       <c r="D40" t="n">
-        <v>2.571482043548309</v>
+        <v>5.319554279578736</v>
       </c>
       <c r="E40" t="n">
-        <v>0.35577372277765</v>
+        <v>0.7205094059633576</v>
       </c>
       <c r="F40" t="n">
-        <v>13.51682198002086</v>
+        <v>22.46192407777806</v>
       </c>
       <c r="G40" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H40" t="n">
-        <v>19.15542996762349</v>
+        <v>31.40035531148159</v>
       </c>
       <c r="I40" t="n">
-        <v>-136.2419360520601</v>
+        <v>-84.45859479837847</v>
       </c>
     </row>
     <row r="41">
@@ -1620,25 +1620,25 @@
         <v>12</v>
       </c>
       <c r="C41" t="n">
-        <v>0.1873926488669763</v>
+        <v>0.3744079757517442</v>
       </c>
       <c r="D41" t="n">
-        <v>2.571482043548309</v>
+        <v>5.319557821353677</v>
       </c>
       <c r="E41" t="n">
-        <v>0.3557737211368835</v>
+        <v>0.7208606397093371</v>
       </c>
       <c r="F41" t="n">
-        <v>13.51682151062531</v>
+        <v>22.5623190301603</v>
       </c>
       <c r="G41" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H41" t="n">
-        <v>19.15542949658717</v>
+        <v>31.50110503938475</v>
       </c>
       <c r="I41" t="n">
-        <v>-136.2419377184921</v>
+        <v>-84.20373885468557</v>
       </c>
     </row>
     <row r="42">
@@ -1649,25 +1649,25 @@
         <v>12</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1873926488669763</v>
+        <v>0.3744079757517442</v>
       </c>
       <c r="D42" t="n">
-        <v>2.571482043548309</v>
+        <v>5.319560406859122</v>
       </c>
       <c r="E42" t="n">
-        <v>0.3557737195271304</v>
+        <v>0.7212054059855919</v>
       </c>
       <c r="F42" t="n">
-        <v>13.51682105010211</v>
+        <v>22.6608914519576</v>
       </c>
       <c r="G42" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H42" t="n">
-        <v>19.15542903445423</v>
+        <v>31.60002481296375</v>
       </c>
       <c r="I42" t="n">
-        <v>-136.2419393506298</v>
+        <v>-83.95548078299286</v>
       </c>
     </row>
     <row r="43">
@@ -1678,25 +1678,25 @@
         <v>12</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1873926488669763</v>
+        <v>0.3744079757517442</v>
       </c>
       <c r="D43" t="n">
-        <v>2.571482043548309</v>
+        <v>5.319562294285202</v>
       </c>
       <c r="E43" t="n">
-        <v>0.3557737179478046</v>
+        <v>0.721543846737562</v>
       </c>
       <c r="F43" t="n">
-        <v>13.51682059828358</v>
+        <v>22.75767439547084</v>
       </c>
       <c r="G43" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H43" t="n">
-        <v>19.15542858105636</v>
+        <v>31.69714808465505</v>
       </c>
       <c r="I43" t="n">
-        <v>-136.2419409491732</v>
+        <v>-83.71361841437997</v>
       </c>
     </row>
   </sheetData>
@@ -1770,28 +1770,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7836</v>
+        <v>7788</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1675777224231207</v>
+        <v>0.2313470458644981</v>
       </c>
       <c r="D2" t="n">
-        <v>2.276855094644862</v>
+        <v>3.27062010818219</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3166631160112527</v>
+        <v>0.4560730454510289</v>
       </c>
       <c r="F2" t="n">
-        <v>11.98667303300028</v>
+        <v>17.22362770561776</v>
       </c>
       <c r="G2" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H2" t="n">
-        <v>17.27172853848921</v>
+        <v>23.70562747752517</v>
       </c>
       <c r="I2" t="n">
-        <v>-150.5019910556736</v>
+        <v>-111.350450169856</v>
       </c>
     </row>
     <row r="3">
@@ -1802,25 +1802,25 @@
         <v>12</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1675777224231207</v>
+        <v>0.2313470458644981</v>
       </c>
       <c r="D3" t="n">
-        <v>2.276855094644862</v>
+        <v>3.27062010818219</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3166631126430067</v>
+        <v>0.4560730420763467</v>
       </c>
       <c r="F3" t="n">
-        <v>11.98667206940189</v>
+        <v>17.22362674001823</v>
       </c>
       <c r="G3" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H3" t="n">
-        <v>17.27172757152258</v>
+        <v>23.70562650855096</v>
       </c>
       <c r="I3" t="n">
-        <v>-150.5019957608823</v>
+        <v>-111.3504523884397</v>
       </c>
     </row>
     <row r="4">
@@ -1831,25 +1831,25 @@
         <v>12</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1675777224231207</v>
+        <v>0.2313470458644981</v>
       </c>
       <c r="D4" t="n">
-        <v>2.276855094644862</v>
+        <v>3.27062010818219</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3166631093384259</v>
+        <v>0.4560730387629315</v>
       </c>
       <c r="F4" t="n">
-        <v>11.98667112401714</v>
+        <v>17.22362579194909</v>
       </c>
       <c r="G4" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H4" t="n">
-        <v>17.27172662283324</v>
+        <v>23.7056255571684</v>
       </c>
       <c r="I4" t="n">
-        <v>-150.5020003707742</v>
+        <v>-111.3504545620361</v>
       </c>
     </row>
     <row r="5">
@@ -1860,25 +1860,25 @@
         <v>12</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1675777224231207</v>
+        <v>0.2313470458644981</v>
       </c>
       <c r="D5" t="n">
-        <v>2.276855094644862</v>
+        <v>3.27062010818219</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3166631060963072</v>
+        <v>0.4560730355096714</v>
       </c>
       <c r="F5" t="n">
-        <v>11.98667019650173</v>
+        <v>17.22362486109207</v>
       </c>
       <c r="G5" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H5" t="n">
-        <v>17.27172569207572</v>
+        <v>23.70562462305812</v>
       </c>
       <c r="I5" t="n">
-        <v>-150.5020048872716</v>
+        <v>-111.3504566915484</v>
       </c>
     </row>
     <row r="6">
@@ -1889,25 +1889,25 @@
         <v>12</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1675777224231207</v>
+        <v>0.2313470458644981</v>
       </c>
       <c r="D6" t="n">
-        <v>2.276855094644862</v>
+        <v>3.27062010818219</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3166631029154704</v>
+        <v>0.4560730323154735</v>
       </c>
       <c r="F6" t="n">
-        <v>11.98666928651792</v>
+        <v>17.22362394713468</v>
       </c>
       <c r="G6" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H6" t="n">
-        <v>17.27172477891106</v>
+        <v>23.70562370590654</v>
       </c>
       <c r="I6" t="n">
-        <v>-150.5020093122595</v>
+        <v>-111.3504587778599</v>
       </c>
     </row>
     <row r="7">
@@ -1918,25 +1918,25 @@
         <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1675777224231207</v>
+        <v>0.2313470458644981</v>
       </c>
       <c r="D7" t="n">
-        <v>2.276855094644862</v>
+        <v>3.27062010818219</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3166630997947565</v>
+        <v>0.4560730291792668</v>
       </c>
       <c r="F7" t="n">
-        <v>11.98666839373432</v>
+        <v>17.22362304977012</v>
       </c>
       <c r="G7" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H7" t="n">
-        <v>17.27172388300675</v>
+        <v>23.70562280540577</v>
       </c>
       <c r="I7" t="n">
-        <v>-150.5020136475838</v>
+        <v>-111.3504608218391</v>
       </c>
     </row>
     <row r="8">
@@ -1947,25 +1947,25 @@
         <v>12</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1675777224231207</v>
+        <v>0.2313470458644981</v>
       </c>
       <c r="D8" t="n">
-        <v>2.276855094644862</v>
+        <v>3.27062010818219</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3166630967330294</v>
+        <v>0.4560730260999972</v>
       </c>
       <c r="F8" t="n">
-        <v>11.98666751782582</v>
+        <v>17.22362216869714</v>
       </c>
       <c r="G8" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H8" t="n">
-        <v>17.27172300403653</v>
+        <v>23.70562192125352</v>
       </c>
       <c r="I8" t="n">
-        <v>-150.5020178950541</v>
+        <v>-111.3504628243356</v>
       </c>
     </row>
     <row r="9">
@@ -1976,25 +1976,25 @@
         <v>12</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1675777224231207</v>
+        <v>0.2313470458644981</v>
       </c>
       <c r="D9" t="n">
-        <v>2.276855094644862</v>
+        <v>3.27062010818219</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3166630937291738</v>
+        <v>0.4560730230766319</v>
       </c>
       <c r="F9" t="n">
-        <v>11.98666665847346</v>
+        <v>17.22362130361996</v>
       </c>
       <c r="G9" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H9" t="n">
-        <v>17.27172214168031</v>
+        <v>23.70562105315298</v>
       </c>
       <c r="I9" t="n">
-        <v>-150.5020220564437</v>
+        <v>-111.3504647861824</v>
       </c>
     </row>
     <row r="10">
@@ -2005,25 +2005,25 @@
         <v>12</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1675777224231207</v>
+        <v>0.2313470458644981</v>
       </c>
       <c r="D10" t="n">
-        <v>2.276855094644862</v>
+        <v>3.27062010818219</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3166630907820965</v>
+        <v>0.456073020108155</v>
       </c>
       <c r="F10" t="n">
-        <v>11.9866658153643</v>
+        <v>17.2236204542482</v>
       </c>
       <c r="G10" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H10" t="n">
-        <v>17.27172129562408</v>
+        <v>23.70562020081274</v>
       </c>
       <c r="I10" t="n">
-        <v>-150.5020261334893</v>
+        <v>-111.350466708196</v>
       </c>
     </row>
     <row r="11">
@@ -2034,25 +2034,25 @@
         <v>12</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1675777224231207</v>
+        <v>0.2313470458644981</v>
       </c>
       <c r="D11" t="n">
-        <v>2.276855094644862</v>
+        <v>3.27062010818219</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3166630878907234</v>
+        <v>0.4560730171935712</v>
       </c>
       <c r="F11" t="n">
-        <v>11.98666498819131</v>
+        <v>17.2236196202967</v>
       </c>
       <c r="G11" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H11" t="n">
-        <v>17.27172046555971</v>
+        <v>23.70561936394666</v>
       </c>
       <c r="I11" t="n">
-        <v>-150.5020301278932</v>
+        <v>-111.3504685911767</v>
       </c>
     </row>
     <row r="12">
@@ -2063,25 +2063,25 @@
         <v>12</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1675777224231207</v>
+        <v>0.2313470458644981</v>
       </c>
       <c r="D12" t="n">
-        <v>2.276855094644862</v>
+        <v>3.27062010818219</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3166630850540024</v>
+        <v>0.4560730143319008</v>
       </c>
       <c r="F12" t="n">
-        <v>11.98666417665328</v>
+        <v>17.22361880148554</v>
       </c>
       <c r="G12" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H12" t="n">
-        <v>17.27171965118496</v>
+        <v>23.70561854227382</v>
       </c>
       <c r="I12" t="n">
-        <v>-150.5020340413245</v>
+        <v>-111.3504704359086</v>
       </c>
     </row>
     <row r="13">
@@ -2092,25 +2092,25 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1675777224231207</v>
+        <v>0.2313470458644981</v>
       </c>
       <c r="D13" t="n">
-        <v>2.276855094644862</v>
+        <v>3.27062010818219</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3166630822709001</v>
+        <v>0.4560730115221835</v>
       </c>
       <c r="F13" t="n">
-        <v>11.98666338045467</v>
+        <v>17.22361799753983</v>
       </c>
       <c r="G13" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H13" t="n">
-        <v>17.27171885220325</v>
+        <v>23.70561773551839</v>
       </c>
       <c r="I13" t="n">
-        <v>-150.502037875417</v>
+        <v>-111.3504722431603</v>
       </c>
     </row>
     <row r="14">
@@ -2121,25 +2121,25 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1675777224231207</v>
+        <v>0.2313470458644981</v>
       </c>
       <c r="D14" t="n">
-        <v>2.276855094644862</v>
+        <v>3.27062010818219</v>
       </c>
       <c r="E14" t="n">
-        <v>0.316663079540403</v>
+        <v>0.4560730087634762</v>
       </c>
       <c r="F14" t="n">
-        <v>11.98666259930554</v>
+        <v>17.22361720818969</v>
       </c>
       <c r="G14" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H14" t="n">
-        <v>17.27171806832363</v>
+        <v>23.70561694340955</v>
       </c>
       <c r="I14" t="n">
-        <v>-150.5020416317732</v>
+        <v>-111.3504740136867</v>
       </c>
     </row>
     <row r="15">
@@ -2150,25 +2150,25 @@
         <v>12</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1675777224231207</v>
+        <v>0.2313470458644981</v>
       </c>
       <c r="D15" t="n">
-        <v>2.276855094644862</v>
+        <v>3.27062010818219</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3166630768615171</v>
+        <v>0.4560730060548547</v>
       </c>
       <c r="F15" t="n">
-        <v>11.98666183292145</v>
+        <v>17.22361643317015</v>
       </c>
       <c r="G15" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H15" t="n">
-        <v>17.27171729926064</v>
+        <v>23.70561616568138</v>
       </c>
       <c r="I15" t="n">
-        <v>-150.5020453119625</v>
+        <v>-111.3504757482249</v>
       </c>
     </row>
     <row r="16">
@@ -2179,25 +2179,25 @@
         <v>12</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1675777224231207</v>
+        <v>0.2313470458644981</v>
       </c>
       <c r="D16" t="n">
-        <v>2.276855094644862</v>
+        <v>3.27062010818219</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3166630742332665</v>
+        <v>0.4560730033954071</v>
       </c>
       <c r="F16" t="n">
-        <v>11.98666108102329</v>
+        <v>17.22361567222101</v>
       </c>
       <c r="G16" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H16" t="n">
-        <v>17.27171654473423</v>
+        <v>23.7056154020728</v>
       </c>
       <c r="I16" t="n">
-        <v>-150.5020489175222</v>
+        <v>-111.3504774474978</v>
       </c>
     </row>
     <row r="17">
@@ -2208,25 +2208,25 @@
         <v>12</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1675777224231207</v>
+        <v>0.2313470458644981</v>
       </c>
       <c r="D17" t="n">
-        <v>2.276855094644862</v>
+        <v>3.27062010818219</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3166630716546943</v>
+        <v>0.4560730007842415</v>
       </c>
       <c r="F17" t="n">
-        <v>11.98666034333727</v>
+        <v>17.22361492508685</v>
       </c>
       <c r="G17" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H17" t="n">
-        <v>17.27171580446964</v>
+        <v>23.70561465232748</v>
       </c>
       <c r="I17" t="n">
-        <v>-150.5020524499598</v>
+        <v>-111.3504791122151</v>
       </c>
     </row>
     <row r="18">
@@ -2237,25 +2237,25 @@
         <v>12</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1675777224231207</v>
+        <v>0.2313470458644981</v>
       </c>
       <c r="D18" t="n">
-        <v>2.276855094644862</v>
+        <v>3.27062010818219</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3166630691248614</v>
+        <v>0.4560729982204809</v>
       </c>
       <c r="F18" t="n">
-        <v>11.98665961959475</v>
+        <v>17.22361419151685</v>
       </c>
       <c r="G18" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H18" t="n">
-        <v>17.27171507819729</v>
+        <v>23.70561391619372</v>
       </c>
       <c r="I18" t="n">
-        <v>-150.5020559107525</v>
+        <v>-111.3504807430722</v>
       </c>
     </row>
     <row r="19">
@@ -2266,25 +2266,25 @@
         <v>12</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1675777224231207</v>
+        <v>0.2313470458644981</v>
       </c>
       <c r="D19" t="n">
-        <v>2.276855094644862</v>
+        <v>3.27062010818219</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3166630666428466</v>
+        <v>0.456072995703266</v>
       </c>
       <c r="F19" t="n">
-        <v>11.98665890953218</v>
+        <v>17.22361347126475</v>
       </c>
       <c r="G19" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H19" t="n">
-        <v>17.2717143656527</v>
+        <v>23.7056131934244</v>
       </c>
       <c r="I19" t="n">
-        <v>-150.5020593013463</v>
+        <v>-111.3504823407498</v>
       </c>
     </row>
     <row r="20">
@@ -2295,25 +2295,25 @@
         <v>12</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1675777224231207</v>
+        <v>0.2313470458644981</v>
       </c>
       <c r="D20" t="n">
-        <v>2.276855094644862</v>
+        <v>3.27062010818219</v>
       </c>
       <c r="E20" t="n">
-        <v>0.316663064207746</v>
+        <v>0.4560729932317508</v>
       </c>
       <c r="F20" t="n">
-        <v>11.98665821289097</v>
+        <v>17.22361276408877</v>
       </c>
       <c r="G20" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H20" t="n">
-        <v>17.27171366657639</v>
+        <v>23.70561248377691</v>
       </c>
       <c r="I20" t="n">
-        <v>-150.5020626231585</v>
+        <v>-111.3504839059166</v>
       </c>
     </row>
     <row r="21">
@@ -2324,25 +2324,25 @@
         <v>12</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1675777224231207</v>
+        <v>0.2313470458644981</v>
       </c>
       <c r="D21" t="n">
-        <v>2.276855094644862</v>
+        <v>3.27062010818219</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3166630618186727</v>
+        <v>0.4560729908051057</v>
       </c>
       <c r="F21" t="n">
-        <v>11.98665752941744</v>
+        <v>17.22361206975152</v>
       </c>
       <c r="G21" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H21" t="n">
-        <v>17.27171298071379</v>
+        <v>23.70561178701301</v>
       </c>
       <c r="I21" t="n">
-        <v>-150.50206587758</v>
+        <v>-111.3504854392262</v>
       </c>
     </row>
     <row r="22">
@@ -2353,25 +2353,25 @@
         <v>12</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1675777224231207</v>
+        <v>0.2313470458644981</v>
       </c>
       <c r="D22" t="n">
-        <v>2.276855094644862</v>
+        <v>3.27062010818219</v>
       </c>
       <c r="E22" t="n">
-        <v>0.316663059474757</v>
+        <v>0.456072988422516</v>
       </c>
       <c r="F22" t="n">
-        <v>11.98665685886272</v>
+        <v>17.22361138801992</v>
       </c>
       <c r="G22" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H22" t="n">
-        <v>17.27171230781515</v>
+        <v>23.70561110289882</v>
       </c>
       <c r="I22" t="n">
-        <v>-150.502069065972</v>
+        <v>-111.3504869413202</v>
       </c>
     </row>
     <row r="23">
@@ -2382,25 +2382,25 @@
         <v>12</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1675777224231207</v>
+        <v>0.2313470458644981</v>
       </c>
       <c r="D23" t="n">
-        <v>2.276855094644862</v>
+        <v>3.27062010818219</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3166630571751453</v>
+        <v>0.4560729860831821</v>
       </c>
       <c r="F23" t="n">
-        <v>11.98665620098259</v>
+        <v>17.22361071866509</v>
       </c>
       <c r="G23" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H23" t="n">
-        <v>17.27171164763541</v>
+        <v>23.70561043120465</v>
       </c>
       <c r="I23" t="n">
-        <v>-150.502072189667</v>
+        <v>-111.3504884128264</v>
       </c>
     </row>
     <row r="24">
@@ -2411,25 +2411,25 @@
         <v>12</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1675777224231207</v>
+        <v>0.2313470458644981</v>
       </c>
       <c r="D24" t="n">
-        <v>2.276855094644862</v>
+        <v>3.27062010818219</v>
       </c>
       <c r="E24" t="n">
-        <v>0.316663054919</v>
+        <v>0.4560729837863189</v>
       </c>
       <c r="F24" t="n">
-        <v>11.98665555553751</v>
+        <v>17.22361006146234</v>
       </c>
       <c r="G24" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H24" t="n">
-        <v>17.27171099993418</v>
+        <v>23.70560977170504</v>
       </c>
       <c r="I24" t="n">
-        <v>-150.5020752499738</v>
+        <v>-111.3504898543615</v>
       </c>
     </row>
     <row r="25">
@@ -2440,25 +2440,25 @@
         <v>12</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1675777224231207</v>
+        <v>0.2313470458644981</v>
       </c>
       <c r="D25" t="n">
-        <v>2.276855094644862</v>
+        <v>3.27062010818219</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3166630527054996</v>
+        <v>0.4560729815311544</v>
       </c>
       <c r="F25" t="n">
-        <v>11.9866549222924</v>
+        <v>17.22360941619106</v>
       </c>
       <c r="G25" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H25" t="n">
-        <v>17.27171036447558</v>
+        <v>23.70560912417859</v>
       </c>
       <c r="I25" t="n">
-        <v>-150.502078248172</v>
+        <v>-111.350491266528</v>
       </c>
     </row>
     <row r="26">
@@ -2469,25 +2469,25 @@
         <v>12</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1675777224231207</v>
+        <v>0.2313470458644981</v>
       </c>
       <c r="D26" t="n">
-        <v>2.276855094644862</v>
+        <v>3.27062010818219</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3166630505338382</v>
+        <v>0.4560729793169331</v>
       </c>
       <c r="F26" t="n">
-        <v>11.9866543010167</v>
+        <v>17.22360878263463</v>
       </c>
       <c r="G26" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H26" t="n">
-        <v>17.27170974102821</v>
+        <v>23.70560848840794</v>
       </c>
       <c r="I26" t="n">
-        <v>-150.5020811855171</v>
+        <v>-111.3504926499186</v>
       </c>
     </row>
     <row r="27">
@@ -2498,25 +2498,25 @@
         <v>12</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1675777224231207</v>
+        <v>0.2313470458644981</v>
       </c>
       <c r="D27" t="n">
-        <v>2.276855094644862</v>
+        <v>3.27062010818219</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3166630484032248</v>
+        <v>0.4560729771429103</v>
       </c>
       <c r="F27" t="n">
-        <v>11.98665369148415</v>
+        <v>17.22360816058036</v>
       </c>
       <c r="G27" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H27" t="n">
-        <v>17.27170912936505</v>
+        <v>23.70560786417965</v>
       </c>
       <c r="I27" t="n">
-        <v>-150.5020840632399</v>
+        <v>-111.3504940051127</v>
       </c>
     </row>
     <row r="28">
@@ -2527,25 +2527,25 @@
         <v>12</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1675777224231207</v>
+        <v>0.2313470458644981</v>
       </c>
       <c r="D28" t="n">
-        <v>2.276855094644862</v>
+        <v>3.27062010818219</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3166630463128837</v>
+        <v>0.4560729750083564</v>
       </c>
       <c r="F28" t="n">
-        <v>11.98665309347277</v>
+        <v>17.22360754981945</v>
       </c>
       <c r="G28" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H28" t="n">
-        <v>17.27170852926334</v>
+        <v>23.70560725128419</v>
       </c>
       <c r="I28" t="n">
-        <v>-150.5020868825444</v>
+        <v>-111.3504953326784</v>
       </c>
     </row>
     <row r="29">
@@ -2556,25 +2556,25 @@
         <v>12</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1675777224231207</v>
+        <v>0.2313470458644981</v>
       </c>
       <c r="D29" t="n">
-        <v>2.276855094644862</v>
+        <v>3.27062010818219</v>
       </c>
       <c r="E29" t="n">
-        <v>0.3166630442620537</v>
+        <v>0.4560729729125553</v>
       </c>
       <c r="F29" t="n">
-        <v>11.98665250676482</v>
+        <v>17.22360695014684</v>
       </c>
       <c r="G29" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H29" t="n">
-        <v>17.27170794050455</v>
+        <v>23.70560664951578</v>
       </c>
       <c r="I29" t="n">
-        <v>-150.5020896446122</v>
+        <v>-111.3504966331721</v>
       </c>
     </row>
     <row r="30">
@@ -2585,25 +2585,25 @@
         <v>12</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1675777224231207</v>
+        <v>0.2313470458644981</v>
       </c>
       <c r="D30" t="n">
-        <v>2.276855094644862</v>
+        <v>3.27062010818219</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3166630422499874</v>
+        <v>0.4560729708548041</v>
       </c>
       <c r="F30" t="n">
-        <v>11.98665193114663</v>
+        <v>17.22360636136123</v>
       </c>
       <c r="G30" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H30" t="n">
-        <v>17.2717073628743</v>
+        <v>23.70560605867242</v>
       </c>
       <c r="I30" t="n">
-        <v>-150.5020923505988</v>
+        <v>-111.3504979071407</v>
       </c>
     </row>
     <row r="31">
@@ -2614,25 +2614,25 @@
         <v>12</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1675777224231207</v>
+        <v>0.2313470458644981</v>
       </c>
       <c r="D31" t="n">
-        <v>2.276855094644862</v>
+        <v>3.27062010818219</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3166630402759526</v>
+        <v>0.4560729688344106</v>
       </c>
       <c r="F31" t="n">
-        <v>11.98665136640859</v>
+        <v>17.223605783265</v>
       </c>
       <c r="G31" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H31" t="n">
-        <v>17.27170679616222</v>
+        <v>23.70560547855579</v>
       </c>
       <c r="I31" t="n">
-        <v>-150.502095001639</v>
+        <v>-111.3504991551187</v>
       </c>
     </row>
     <row r="32">
@@ -2643,25 +2643,25 @@
         <v>12</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1675777224231207</v>
+        <v>0.2313470458644981</v>
       </c>
       <c r="D32" t="n">
-        <v>2.276855094644862</v>
+        <v>3.27062010818219</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3166630383392303</v>
+        <v>0.4560729668506965</v>
       </c>
       <c r="F32" t="n">
-        <v>11.98665081234504</v>
+        <v>17.22360521566406</v>
       </c>
       <c r="G32" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H32" t="n">
-        <v>17.27170624016194</v>
+        <v>23.70560490897114</v>
       </c>
       <c r="I32" t="n">
-        <v>-150.5020975988432</v>
+        <v>-111.3505003776306</v>
       </c>
     </row>
     <row r="33">
@@ -2672,25 +2672,25 @@
         <v>12</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1675777224231207</v>
+        <v>0.2313470458644981</v>
       </c>
       <c r="D33" t="n">
-        <v>2.276855094644862</v>
+        <v>3.27062010818219</v>
       </c>
       <c r="E33" t="n">
-        <v>0.3166630364391154</v>
+        <v>0.456072964902997</v>
       </c>
       <c r="F33" t="n">
-        <v>11.98665026875422</v>
+        <v>17.22360465836787</v>
       </c>
       <c r="G33" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H33" t="n">
-        <v>17.27170569467101</v>
+        <v>23.70560434972725</v>
       </c>
       <c r="I33" t="n">
-        <v>-150.5021001433001</v>
+        <v>-111.3505015751884</v>
       </c>
     </row>
     <row r="34">
@@ -2701,25 +2701,25 @@
         <v>12</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1675777224231207</v>
+        <v>0.2313470458644981</v>
       </c>
       <c r="D34" t="n">
-        <v>2.276855094644862</v>
+        <v>3.27062010818219</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3166630345749158</v>
+        <v>0.456072962990658</v>
       </c>
       <c r="F34" t="n">
-        <v>11.98664973543817</v>
+        <v>17.22360411118933</v>
       </c>
       <c r="G34" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H34" t="n">
-        <v>17.27170515949076</v>
+        <v>23.70560380063637</v>
       </c>
       <c r="I34" t="n">
-        <v>-150.5021026360754</v>
+        <v>-111.3505027482972</v>
       </c>
     </row>
     <row r="35">
@@ -2730,25 +2730,25 @@
         <v>12</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1675777224231207</v>
+        <v>0.2313470458644981</v>
       </c>
       <c r="D35" t="n">
-        <v>2.276855094644862</v>
+        <v>3.27062010818219</v>
       </c>
       <c r="E35" t="n">
-        <v>0.3166630327459528</v>
+        <v>0.4560729611130376</v>
       </c>
       <c r="F35" t="n">
-        <v>11.98664921220269</v>
+        <v>17.22360357394479</v>
       </c>
       <c r="G35" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H35" t="n">
-        <v>17.27170463442631</v>
+        <v>23.70560326151421</v>
       </c>
       <c r="I35" t="n">
-        <v>-150.502105078215</v>
+        <v>-111.3505038974499</v>
       </c>
     </row>
     <row r="36">
@@ -2759,25 +2759,25 @@
         <v>12</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1675777224231207</v>
+        <v>0.2313470458644981</v>
       </c>
       <c r="D36" t="n">
-        <v>2.276855094644862</v>
+        <v>3.27062010818219</v>
       </c>
       <c r="E36" t="n">
-        <v>0.3166630309515603</v>
+        <v>0.4560729592695052</v>
       </c>
       <c r="F36" t="n">
-        <v>11.98664869885723</v>
+        <v>17.22360304645388</v>
       </c>
       <c r="G36" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H36" t="n">
-        <v>17.27170411928646</v>
+        <v>23.70560273217977</v>
       </c>
       <c r="I36" t="n">
-        <v>-150.5021074707435</v>
+        <v>-111.35050502313</v>
       </c>
     </row>
     <row r="37">
@@ -2788,25 +2788,25 @@
         <v>12</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1675777224231207</v>
+        <v>0.2313470458644981</v>
       </c>
       <c r="D37" t="n">
-        <v>2.276855094644862</v>
+        <v>3.27062010818219</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3166630291910847</v>
+        <v>0.4560729574594418</v>
       </c>
       <c r="F37" t="n">
-        <v>11.98664819521486</v>
+        <v>17.22360252853954</v>
       </c>
       <c r="G37" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H37" t="n">
-        <v>17.27170361388362</v>
+        <v>23.70560221245536</v>
       </c>
       <c r="I37" t="n">
-        <v>-150.5021098146638</v>
+        <v>-111.3505061258114</v>
       </c>
     </row>
     <row r="38">
@@ -2817,25 +2817,25 @@
         <v>12</v>
       </c>
       <c r="C38" t="n">
-        <v>0.1675777224231207</v>
+        <v>0.2313470458644981</v>
       </c>
       <c r="D38" t="n">
-        <v>2.276855094644862</v>
+        <v>3.27062010818219</v>
       </c>
       <c r="E38" t="n">
-        <v>0.316663027463885</v>
+        <v>0.4560729556822405</v>
       </c>
       <c r="F38" t="n">
-        <v>11.98664770109217</v>
+        <v>17.22360202002788</v>
       </c>
       <c r="G38" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H38" t="n">
-        <v>17.27170311803373</v>
+        <v>23.7056017021665</v>
       </c>
       <c r="I38" t="n">
-        <v>-150.502112110958</v>
+        <v>-111.3505072059586</v>
       </c>
     </row>
     <row r="39">
@@ -2846,25 +2846,25 @@
         <v>12</v>
       </c>
       <c r="C39" t="n">
-        <v>0.1675777224231207</v>
+        <v>0.2313470458644981</v>
       </c>
       <c r="D39" t="n">
-        <v>2.276855094644862</v>
+        <v>3.27062010818219</v>
       </c>
       <c r="E39" t="n">
-        <v>0.3166630257693322</v>
+        <v>0.4560729539373037</v>
       </c>
       <c r="F39" t="n">
-        <v>11.98664721630924</v>
+        <v>17.22360152074821</v>
       </c>
       <c r="G39" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H39" t="n">
-        <v>17.27170263155624</v>
+        <v>23.7056012011419</v>
       </c>
       <c r="I39" t="n">
-        <v>-150.5021143605908</v>
+        <v>-111.3505082640264</v>
       </c>
     </row>
     <row r="40">
@@ -2875,25 +2875,25 @@
         <v>12</v>
       </c>
       <c r="C40" t="n">
-        <v>0.1675777224231207</v>
+        <v>0.2313470458644981</v>
       </c>
       <c r="D40" t="n">
-        <v>2.276855094644862</v>
+        <v>3.27062010818219</v>
       </c>
       <c r="E40" t="n">
-        <v>0.3166630241068094</v>
+        <v>0.4560729522240459</v>
       </c>
       <c r="F40" t="n">
-        <v>11.98664674068951</v>
+        <v>17.22360103053292</v>
       </c>
       <c r="G40" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H40" t="n">
-        <v>17.271702154274</v>
+        <v>23.70560070921334</v>
       </c>
       <c r="I40" t="n">
-        <v>-150.502116564506</v>
+        <v>-111.3505093004597</v>
       </c>
     </row>
     <row r="41">
@@ -2904,25 +2904,25 @@
         <v>12</v>
       </c>
       <c r="C41" t="n">
-        <v>0.1675777224231207</v>
+        <v>0.2313470458644981</v>
       </c>
       <c r="D41" t="n">
-        <v>2.276855094644862</v>
+        <v>3.27062010818219</v>
       </c>
       <c r="E41" t="n">
-        <v>0.316663022475711</v>
+        <v>0.4560729505418925</v>
       </c>
       <c r="F41" t="n">
-        <v>11.98664627405979</v>
+        <v>17.22360054921745</v>
       </c>
       <c r="G41" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H41" t="n">
-        <v>17.27170168601317</v>
+        <v>23.70560022621572</v>
       </c>
       <c r="I41" t="n">
-        <v>-150.5021187236279</v>
+        <v>-111.3505103156982</v>
       </c>
     </row>
     <row r="42">
@@ -2933,25 +2933,25 @@
         <v>12</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1675777224231207</v>
+        <v>0.2313470458644981</v>
       </c>
       <c r="D42" t="n">
-        <v>2.276855094644862</v>
+        <v>3.27062010818219</v>
       </c>
       <c r="E42" t="n">
-        <v>0.3166630208754431</v>
+        <v>0.4560729488902784</v>
       </c>
       <c r="F42" t="n">
-        <v>11.98664581625015</v>
+        <v>17.22360007664022</v>
       </c>
       <c r="G42" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H42" t="n">
-        <v>17.27170122660327</v>
+        <v>23.70559975198688</v>
       </c>
       <c r="I42" t="n">
-        <v>-150.5021208388634</v>
+        <v>-111.3505113101687</v>
       </c>
     </row>
     <row r="43">
@@ -2962,25 +2962,25 @@
         <v>12</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1675777224231207</v>
+        <v>0.2313470458644981</v>
       </c>
       <c r="D43" t="n">
-        <v>2.276855094644862</v>
+        <v>3.27062010818219</v>
       </c>
       <c r="E43" t="n">
-        <v>0.316663019305423</v>
+        <v>0.4560729472686486</v>
       </c>
       <c r="F43" t="n">
-        <v>11.98664536709388</v>
+        <v>17.22359961264259</v>
       </c>
       <c r="G43" t="n">
         <v>2.523959572409693</v>
       </c>
       <c r="H43" t="n">
-        <v>17.27170077587698</v>
+        <v>23.70559928636763</v>
       </c>
       <c r="I43" t="n">
-        <v>-150.5021229111002</v>
+        <v>-111.3505122842904</v>
       </c>
     </row>
   </sheetData>
